--- a/data/trans_orig/P33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F9D0B03-AB94-4F3C-ACF3-B0D062CBDE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E4CEAD-1554-4E93-A211-6588FF66285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD54979F-E6B7-4551-ADEA-591CEF0F9553}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DF0F415-3C66-439F-9ED4-99E36E14CD47}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="379">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>86,63%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>83,83%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,55 +196,55 @@
     <t>82,98%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>21,95%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -253,55 +253,55 @@
     <t>85,5%</t>
   </si>
   <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -310,55 +310,55 @@
     <t>82,01%</t>
   </si>
   <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>74,29%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -367,826 +367,814 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>73,17%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>26,83%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>71,8%</t>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC971D7C-8502-49B8-A9EE-5CC811C00858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7FA818-0078-440D-AB78-3021A6066E69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2518,7 +2506,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="M19" s="7">
         <v>969</v>
@@ -2527,13 +2515,13 @@
         <v>1055536</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2536,13 @@
         <v>63716</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -2563,13 +2551,13 @@
         <v>171705</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>218</v>
@@ -2578,13 +2566,13 @@
         <v>235421</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,13 +2640,13 @@
         <v>2886901</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2396</v>
@@ -2667,13 +2655,13 @@
         <v>2589885</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5093</v>
@@ -2682,13 +2670,13 @@
         <v>5476786</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2691,13 @@
         <v>514737</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -2718,13 +2706,13 @@
         <v>941889</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1364</v>
@@ -2733,13 +2721,13 @@
         <v>1456626</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,7 +2783,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2817,7 +2805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42040B-AC27-40FF-AF07-2167FC0B7E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C18AB2-F337-4515-A8DE-5EF535B2A618}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2834,7 +2822,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2941,13 +2929,13 @@
         <v>356738</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>315</v>
@@ -2956,13 +2944,13 @@
         <v>307983</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>651</v>
@@ -2971,13 +2959,13 @@
         <v>664721</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2980,13 @@
         <v>59694</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -3007,13 +2995,13 @@
         <v>84928</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -3022,13 +3010,13 @@
         <v>144622</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3084,13 @@
         <v>480472</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>442</v>
@@ -3111,13 +3099,13 @@
         <v>429677</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>905</v>
@@ -3126,13 +3114,13 @@
         <v>910149</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3135,13 @@
         <v>100503</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -3162,13 +3150,13 @@
         <v>129582</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>228</v>
@@ -3177,13 +3165,13 @@
         <v>230085</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3400,7 @@
         <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -3421,13 +3409,13 @@
         <v>444443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -3436,13 +3424,13 @@
         <v>972986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3445,13 @@
         <v>112213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3472,13 +3460,13 @@
         <v>196932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3487,13 +3475,13 @@
         <v>309146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3549,13 @@
         <v>404849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -3576,13 +3564,13 @@
         <v>344002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>661</v>
@@ -3591,13 +3579,13 @@
         <v>748850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3600,13 @@
         <v>68028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3627,13 +3615,13 @@
         <v>146335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -3642,13 +3630,13 @@
         <v>214364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3704,13 @@
         <v>511989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>467</v>
@@ -3731,13 +3719,13 @@
         <v>559536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>1009</v>
@@ -3746,13 +3734,13 @@
         <v>1071526</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3755,13 @@
         <v>73222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>174</v>
@@ -3782,13 +3770,13 @@
         <v>201210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3797,13 +3785,13 @@
         <v>274431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3859,13 @@
         <v>2826631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>2433</v>
@@ -3886,13 +3874,13 @@
         <v>2576809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>5131</v>
@@ -3901,13 +3889,13 @@
         <v>5403441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3910,13 @@
         <v>531133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -3937,13 +3925,13 @@
         <v>921146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
         <v>1362</v>
@@ -3952,10 +3940,10 @@
         <v>1452279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>263</v>
@@ -4014,7 +4002,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4036,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0908C7AF-399D-4A74-8261-98563FB47D1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD6D840-B93F-4E6A-9BE8-4B1AE1DB6FF2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4178,10 +4166,10 @@
         <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -4190,13 +4178,13 @@
         <v>660933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4199,13 @@
         <v>23020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -4226,13 +4214,13 @@
         <v>40691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -4241,13 +4229,13 @@
         <v>63711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4303,13 @@
         <v>375052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>387</v>
@@ -4330,13 +4318,13 @@
         <v>412254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>651</v>
@@ -4345,13 +4333,13 @@
         <v>787306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4354,13 @@
         <v>53344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4381,13 +4369,13 @@
         <v>80001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
@@ -4396,13 +4384,13 @@
         <v>133345</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4458,13 @@
         <v>453485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
@@ -4485,13 +4473,13 @@
         <v>447561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
@@ -4500,13 +4488,13 @@
         <v>901048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4509,13 @@
         <v>100541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -4536,13 +4524,13 @@
         <v>129832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -4551,13 +4539,13 @@
         <v>230372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4613,13 @@
         <v>591784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>842</v>
@@ -4640,13 +4628,13 @@
         <v>549242</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>1387</v>
@@ -4655,13 +4643,13 @@
         <v>1141026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4664,13 @@
         <v>131080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -4691,13 +4679,13 @@
         <v>194550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -4706,10 +4694,10 @@
         <v>325631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>332</v>
@@ -4783,10 +4771,10 @@
         <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>650</v>
@@ -4795,13 +4783,13 @@
         <v>379426</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M16" s="7">
         <v>1175</v>
@@ -4810,13 +4798,13 @@
         <v>850455</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4819,13 @@
         <v>123563</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -4846,13 +4834,13 @@
         <v>210768</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>478</v>
@@ -4861,13 +4849,13 @@
         <v>334330</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4923,13 @@
         <v>533361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>1183</v>
@@ -4950,13 +4938,13 @@
         <v>732264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M19" s="7">
         <v>1970</v>
@@ -4965,13 +4953,13 @@
         <v>1265626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>75</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4974,13 @@
         <v>161111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>519</v>
@@ -5001,13 +4989,13 @@
         <v>290409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
         <v>756</v>
@@ -5016,13 +5004,13 @@
         <v>451519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5078,13 @@
         <v>2775948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>3895</v>
@@ -5105,13 +5093,13 @@
         <v>2830446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>6632</v>
@@ -5120,13 +5108,13 @@
         <v>5606394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,13 +5129,13 @@
         <v>592658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>371</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>1437</v>
@@ -5156,13 +5144,13 @@
         <v>946250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>373</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>2062</v>
@@ -5171,13 +5159,13 @@
         <v>1538908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5221,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10E4CEAD-1554-4E93-A211-6588FF66285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1238DD-0994-4D86-B220-50E0AD63566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DF0F415-3C66-439F-9ED4-99E36E14CD47}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{856BC2AE-C40F-45A5-A198-D1C9B6E1D83F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -76,1051 +76,1075 @@
     <t>86,63%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>72,98%</t>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>21,15%</t>
   </si>
   <si>
     <t>28,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
   </si>
   <si>
     <t>82,41%</t>
@@ -1586,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7FA818-0078-440D-AB78-3021A6066E69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09A9DEA-79A9-4BC7-A9E3-CAA4334C0D86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2506,7 +2530,7 @@
         <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>969</v>
@@ -2515,13 +2539,13 @@
         <v>1055536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2560,13 @@
         <v>63716</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -2551,13 +2575,13 @@
         <v>171705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>218</v>
@@ -2566,13 +2590,13 @@
         <v>235421</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2664,13 @@
         <v>2886901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>2396</v>
@@ -2655,13 +2679,13 @@
         <v>2589885</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5093</v>
@@ -2670,13 +2694,13 @@
         <v>5476786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2715,13 @@
         <v>514737</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>876</v>
@@ -2706,13 +2730,13 @@
         <v>941889</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1364</v>
@@ -2721,13 +2745,13 @@
         <v>1456626</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2807,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2805,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C18AB2-F337-4515-A8DE-5EF535B2A618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6BB3A-1CA5-485F-BF2E-6AE527C88889}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2822,7 +2846,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2929,13 +2953,13 @@
         <v>356738</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>315</v>
@@ -2944,13 +2968,13 @@
         <v>307983</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>651</v>
@@ -2959,13 +2983,13 @@
         <v>664721</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +3004,13 @@
         <v>59694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -2995,13 +3019,13 @@
         <v>84928</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -3010,13 +3034,13 @@
         <v>144622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3108,13 @@
         <v>480472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>442</v>
@@ -3099,13 +3123,13 @@
         <v>429677</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>905</v>
@@ -3114,13 +3138,13 @@
         <v>910149</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3159,13 @@
         <v>100503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -3150,13 +3174,13 @@
         <v>129582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>228</v>
@@ -3165,13 +3189,13 @@
         <v>230085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3263,13 @@
         <v>544041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>494</v>
@@ -3254,13 +3278,13 @@
         <v>491167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -3269,13 +3293,13 @@
         <v>1035208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3314,13 @@
         <v>117473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3305,13 +3329,13 @@
         <v>162159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
@@ -3320,13 +3344,13 @@
         <v>279632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3418,13 @@
         <v>528544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -3409,13 +3433,13 @@
         <v>444443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -3424,13 +3448,13 @@
         <v>972986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,13 +3469,13 @@
         <v>112213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3460,13 +3484,13 @@
         <v>196932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3475,7 +3499,7 @@
         <v>309146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>214</v>
@@ -3582,10 +3606,10 @@
         <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3624,13 @@
         <v>68028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3615,13 +3639,13 @@
         <v>146335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -3630,13 +3654,13 @@
         <v>214364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3728,13 @@
         <v>511989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>467</v>
@@ -3719,13 +3743,13 @@
         <v>559536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>1009</v>
@@ -3734,13 +3758,13 @@
         <v>1071526</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3779,13 @@
         <v>73222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>174</v>
@@ -3770,13 +3794,13 @@
         <v>201210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3785,13 +3809,13 @@
         <v>274431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3883,13 @@
         <v>2826631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>2433</v>
@@ -3874,13 +3898,13 @@
         <v>2576809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
         <v>5131</v>
@@ -3889,13 +3913,13 @@
         <v>5403441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3934,13 @@
         <v>531133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -3925,13 +3949,13 @@
         <v>921146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7">
         <v>1362</v>
@@ -3940,13 +3964,13 @@
         <v>1452279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,7 +4026,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD6D840-B93F-4E6A-9BE8-4B1AE1DB6FF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FDCCCB-1EB5-42DE-8612-8790C9CAED4D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4041,7 +4065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4148,13 +4172,13 @@
         <v>351236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>181</v>
@@ -4163,13 +4187,13 @@
         <v>309697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -4178,13 +4202,13 @@
         <v>660933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4223,13 @@
         <v>23020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -4214,13 +4238,13 @@
         <v>40691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -4229,13 +4253,13 @@
         <v>63711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4327,13 @@
         <v>375052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>387</v>
@@ -4318,13 +4342,13 @@
         <v>412254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
         <v>651</v>
@@ -4333,13 +4357,13 @@
         <v>787306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4378,13 @@
         <v>53344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4369,13 +4393,13 @@
         <v>80001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
@@ -4384,13 +4408,13 @@
         <v>133345</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4482,13 @@
         <v>453485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
@@ -4473,13 +4497,13 @@
         <v>447561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
@@ -4488,13 +4512,13 @@
         <v>901048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4533,13 @@
         <v>100541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -4524,13 +4548,13 @@
         <v>129832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -4539,13 +4563,13 @@
         <v>230372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4637,13 @@
         <v>591784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>842</v>
@@ -4628,13 +4652,13 @@
         <v>549242</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>1387</v>
@@ -4643,13 +4667,13 @@
         <v>1141026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4688,13 @@
         <v>131080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -4679,13 +4703,13 @@
         <v>194550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -4694,13 +4718,13 @@
         <v>325631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4792,13 @@
         <v>471028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>650</v>
@@ -4783,13 +4807,13 @@
         <v>379426</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>1175</v>
@@ -4798,13 +4822,13 @@
         <v>850455</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4843,13 @@
         <v>123563</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -4834,13 +4858,13 @@
         <v>210768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>478</v>
@@ -4849,13 +4873,13 @@
         <v>334330</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,13 +4947,13 @@
         <v>533361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>1183</v>
@@ -4938,13 +4962,13 @@
         <v>732264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>1970</v>
@@ -4953,13 +4977,13 @@
         <v>1265626</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4998,13 @@
         <v>161111</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>519</v>
@@ -4989,13 +5013,13 @@
         <v>290409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>756</v>
@@ -5004,13 +5028,13 @@
         <v>451519</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5102,13 @@
         <v>2775948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>3895</v>
@@ -5093,13 +5117,13 @@
         <v>2830446</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>6632</v>
@@ -5108,13 +5132,13 @@
         <v>5606394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5153,13 @@
         <v>592658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>1437</v>
@@ -5144,13 +5168,13 @@
         <v>946250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>2062</v>
@@ -5159,13 +5183,13 @@
         <v>1538908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,7 +5245,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1238DD-0994-4D86-B220-50E0AD63566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D508E744-4774-45BE-BC13-26828B7C074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{856BC2AE-C40F-45A5-A198-D1C9B6E1D83F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B29D70BE-8A37-4D3B-87A1-3CEADFFF1166}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="383">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>83,83%</t>
   </si>
   <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>16,17%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -196,889 +196,889 @@
     <t>82,98%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>73,32%</t>
   </si>
   <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>78,05%</t>
   </si>
   <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
     <t>75,89%</t>
   </si>
   <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>24,11%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>20,13%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>81,89%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
+    <t>22,87%</t>
   </si>
   <si>
     <t>81,87%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
     <t>64,29%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>67,34%</t>
+    <t>67,18%</t>
   </si>
   <si>
     <t>71,78%</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
     <t>35,71%</t>
   </si>
   <si>
-    <t>32,66%</t>
+    <t>32,82%</t>
   </si>
   <si>
     <t>38,79%</t>
@@ -1087,118 +1087,106 @@
     <t>28,22%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>71,6%</t>
   </si>
   <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
   </si>
   <si>
     <t>28,4%</t>
   </si>
   <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>26,29%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>78,46%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09A9DEA-79A9-4BC7-A9E3-CAA4334C0D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E2CC25-948A-4673-B6A6-7747CDDC18EE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2829,7 +2817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A6BB3A-1CA5-485F-BF2E-6AE527C88889}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5388A63B-8F1A-489A-A23F-B7D956E3FD14}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3141,10 +3129,10 @@
         <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3147,13 @@
         <v>100503</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -3174,13 +3162,13 @@
         <v>129582</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>228</v>
@@ -3189,13 +3177,13 @@
         <v>230085</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3251,13 @@
         <v>544041</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>494</v>
@@ -3278,13 +3266,13 @@
         <v>491167</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -3293,13 +3281,13 @@
         <v>1035208</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3302,13 @@
         <v>117473</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3329,13 +3317,13 @@
         <v>162159</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
@@ -3344,13 +3332,13 @@
         <v>279632</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3406,13 @@
         <v>528544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -3433,13 +3421,13 @@
         <v>444443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -3448,13 +3436,13 @@
         <v>972986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3457,13 @@
         <v>112213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3484,13 +3472,13 @@
         <v>196932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3499,13 +3487,13 @@
         <v>309146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3561,13 @@
         <v>404849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -3588,13 +3576,13 @@
         <v>344002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>661</v>
@@ -3603,13 +3591,13 @@
         <v>748850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3612,13 @@
         <v>68028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3639,13 +3627,13 @@
         <v>146335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -3654,13 +3642,13 @@
         <v>214364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3716,13 @@
         <v>511989</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>467</v>
@@ -3743,13 +3731,13 @@
         <v>559536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>1009</v>
@@ -3758,13 +3746,13 @@
         <v>1071526</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3767,13 @@
         <v>73222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>174</v>
@@ -3794,13 +3782,13 @@
         <v>201210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3809,13 +3797,13 @@
         <v>274431</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3871,13 @@
         <v>2826631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>2433</v>
@@ -3898,13 +3886,13 @@
         <v>2576809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>5131</v>
@@ -3913,13 +3901,13 @@
         <v>5403441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3922,13 @@
         <v>531133</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -3949,13 +3937,13 @@
         <v>921146</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>1362</v>
@@ -3964,13 +3952,13 @@
         <v>1452279</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,7 +4036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FDCCCB-1EB5-42DE-8612-8790C9CAED4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6FA2D4-896D-40BA-8121-88E6B4747FCE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4065,7 +4053,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4172,13 +4160,13 @@
         <v>351236</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>181</v>
@@ -4187,13 +4175,13 @@
         <v>309697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
@@ -4202,13 +4190,13 @@
         <v>660933</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4211,13 @@
         <v>23020</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -4238,13 +4226,13 @@
         <v>40691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
@@ -4253,13 +4241,13 @@
         <v>63711</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4315,13 @@
         <v>375052</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H7" s="7">
         <v>387</v>
@@ -4342,13 +4330,13 @@
         <v>412254</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>651</v>
@@ -4357,13 +4345,13 @@
         <v>787306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4366,13 @@
         <v>53344</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -4393,13 +4381,13 @@
         <v>80001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
@@ -4408,13 +4396,13 @@
         <v>133345</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4470,13 @@
         <v>453485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
@@ -4497,10 +4485,10 @@
         <v>447561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>59</v>
@@ -4512,13 +4500,13 @@
         <v>901048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4521,13 @@
         <v>100541</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
@@ -4548,13 +4536,13 @@
         <v>129832</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -4563,13 +4551,13 @@
         <v>230372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4625,13 @@
         <v>591784</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>842</v>
@@ -4652,13 +4640,13 @@
         <v>549242</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>1387</v>
@@ -4667,13 +4655,13 @@
         <v>1141026</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4676,13 @@
         <v>131080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
@@ -4703,13 +4691,13 @@
         <v>194550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
@@ -4718,13 +4706,13 @@
         <v>325631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4780,13 @@
         <v>471028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="H16" s="7">
         <v>650</v>
@@ -4807,13 +4795,13 @@
         <v>379426</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>1175</v>
@@ -4822,13 +4810,13 @@
         <v>850455</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4831,13 @@
         <v>123563</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -5108,7 +5096,7 @@
         <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>3895</v>
@@ -5117,13 +5105,13 @@
         <v>2830446</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>6632</v>
@@ -5132,13 +5120,13 @@
         <v>5606394</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,13 +5141,13 @@
         <v>592658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H23" s="7">
         <v>1437</v>
@@ -5168,13 +5156,13 @@
         <v>946250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>2062</v>
@@ -5183,13 +5171,13 @@
         <v>1538908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P33A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D508E744-4774-45BE-BC13-26828B7C074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1C3D57-A2EF-4C3D-AA82-5A3EF0FA775F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B29D70BE-8A37-4D3B-87A1-3CEADFFF1166}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3C34F233-D383-4E53-A284-84C93E15A0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="430">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -133,7 +133,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>83,83%</t>
@@ -190,7 +190,7 @@
     <t>22,39%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>82,98%</t>
@@ -247,7 +247,7 @@
     <t>24,18%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>85,5%</t>
@@ -304,7 +304,7 @@
     <t>25,15%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>82,01%</t>
@@ -361,61 +361,118 @@
     <t>28,87%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
   <si>
     <t>84,87%</t>
@@ -724,58 +781,112 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
   </si>
   <si>
     <t>84,18%</t>
@@ -835,358 +946,388 @@
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>88,39%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
   </si>
   <si>
     <t>11,61%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1739,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E2CC25-948A-4673-B6A6-7747CDDC18EE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9219EFDD-173F-4EA9-AABB-7DF143AEFD37}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2491,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>490795</v>
+        <v>272902</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2506,10 +2647,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>526</v>
+        <v>258</v>
       </c>
       <c r="I19" s="7">
-        <v>564741</v>
+        <v>267938</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2521,10 +2662,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>969</v>
+        <v>506</v>
       </c>
       <c r="N19" s="7">
-        <v>1055536</v>
+        <v>540842</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2542,10 +2683,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>63716</v>
+        <v>36884</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2557,10 +2698,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="I20" s="7">
-        <v>171705</v>
+        <v>84066</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2572,10 +2713,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="N20" s="7">
-        <v>235421</v>
+        <v>120949</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2593,10 +2734,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>499</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>554511</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2608,10 +2749,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>688</v>
+        <v>342</v>
       </c>
       <c r="I21" s="7">
-        <v>736446</v>
+        <v>352004</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2623,10 +2764,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1187</v>
+        <v>624</v>
       </c>
       <c r="N21" s="7">
-        <v>1290957</v>
+        <v>661791</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2640,55 +2781,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2697</v>
+        <v>195</v>
       </c>
       <c r="D22" s="7">
-        <v>2886901</v>
+        <v>217892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2396</v>
+        <v>268</v>
       </c>
       <c r="I22" s="7">
-        <v>2589885</v>
+        <v>296802</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5093</v>
+        <v>463</v>
       </c>
       <c r="N22" s="7">
-        <v>5476786</v>
+        <v>514694</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,49 +2838,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>488</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>514737</v>
+        <v>26833</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>876</v>
+        <v>78</v>
       </c>
       <c r="I23" s="7">
-        <v>941889</v>
+        <v>87639</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1364</v>
+        <v>100</v>
       </c>
       <c r="N23" s="7">
-        <v>1456626</v>
+        <v>114472</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,63 +2889,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>217</v>
+      </c>
+      <c r="D24" s="7">
+        <v>244725</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>346</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384441</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>563</v>
+      </c>
+      <c r="N24" s="7">
+        <v>629166</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2697</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2886901</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2396</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2589885</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5093</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5476786</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>488</v>
+      </c>
+      <c r="D26" s="7">
+        <v>514737</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>876</v>
+      </c>
+      <c r="I26" s="7">
+        <v>941889</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1364</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1456626</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3185</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3401638</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3272</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3531774</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6457</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6933412</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2817,8 +3114,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5388A63B-8F1A-489A-A23F-B7D956E3FD14}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C308F5DC-F899-4342-AEFB-F7342D76B975}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2834,7 +3131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2941,13 +3238,13 @@
         <v>356738</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>315</v>
@@ -2956,13 +3253,13 @@
         <v>307983</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>651</v>
@@ -2971,13 +3268,13 @@
         <v>664721</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +3289,13 @@
         <v>59694</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>86</v>
@@ -3007,13 +3304,13 @@
         <v>84928</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>140</v>
@@ -3022,13 +3319,13 @@
         <v>144622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3393,13 @@
         <v>480472</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>442</v>
@@ -3111,13 +3408,13 @@
         <v>429677</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>905</v>
@@ -3126,13 +3423,13 @@
         <v>910149</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3444,13 @@
         <v>100503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -3162,13 +3459,13 @@
         <v>129582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>228</v>
@@ -3177,10 +3474,10 @@
         <v>230085</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>85</v>
@@ -3251,13 +3548,13 @@
         <v>544041</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>494</v>
@@ -3266,13 +3563,13 @@
         <v>491167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1017</v>
@@ -3281,13 +3578,13 @@
         <v>1035208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3599,13 @@
         <v>117473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3317,13 +3614,13 @@
         <v>162159</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
@@ -3332,13 +3629,13 @@
         <v>279632</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3703,13 @@
         <v>528544</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>415</v>
@@ -3421,13 +3718,13 @@
         <v>444443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>888</v>
@@ -3436,13 +3733,13 @@
         <v>972986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3754,13 @@
         <v>112213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3472,13 +3769,13 @@
         <v>196932</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>284</v>
@@ -3487,13 +3784,13 @@
         <v>309146</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3858,13 @@
         <v>404849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -3576,10 +3873,10 @@
         <v>344002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>95</v>
@@ -3591,13 +3888,13 @@
         <v>748850</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3909,13 @@
         <v>68028</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -3627,13 +3924,13 @@
         <v>146335</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -3642,13 +3939,13 @@
         <v>214364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,49 +4007,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="D19" s="7">
-        <v>511989</v>
+        <v>285766</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>467</v>
+        <v>249</v>
       </c>
       <c r="I19" s="7">
-        <v>559536</v>
+        <v>267947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
-        <v>1009</v>
+        <v>526</v>
       </c>
       <c r="N19" s="7">
-        <v>1071526</v>
+        <v>553714</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,49 +4058,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>73222</v>
+        <v>44126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="I20" s="7">
-        <v>201210</v>
+        <v>102846</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="N20" s="7">
-        <v>274431</v>
+        <v>146972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,10 +4109,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>621</v>
+        <v>321</v>
       </c>
       <c r="D21" s="7">
-        <v>585211</v>
+        <v>329892</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3827,10 +4124,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>641</v>
+        <v>348</v>
       </c>
       <c r="I21" s="7">
-        <v>760746</v>
+        <v>370793</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3842,10 +4139,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1262</v>
+        <v>669</v>
       </c>
       <c r="N21" s="7">
-        <v>1345957</v>
+        <v>700686</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3859,55 +4156,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2698</v>
+        <v>265</v>
       </c>
       <c r="D22" s="7">
-        <v>2826631</v>
+        <v>226223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>2433</v>
+        <v>218</v>
       </c>
       <c r="I22" s="7">
-        <v>2576809</v>
+        <v>291589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>5131</v>
+        <v>483</v>
       </c>
       <c r="N22" s="7">
-        <v>5403441</v>
+        <v>517812</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,49 +4213,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>499</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>531133</v>
+        <v>29096</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>863</v>
+        <v>75</v>
       </c>
       <c r="I23" s="7">
-        <v>921146</v>
+        <v>98363</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>1362</v>
+        <v>110</v>
       </c>
       <c r="N23" s="7">
-        <v>1452279</v>
+        <v>127459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,63 +4264,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>300</v>
+      </c>
+      <c r="D24" s="7">
+        <v>255319</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>293</v>
+      </c>
+      <c r="I24" s="7">
+        <v>389952</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>593</v>
+      </c>
+      <c r="N24" s="7">
+        <v>645271</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2698</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2826631</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2433</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2576809</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5131</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5403440</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>499</v>
+      </c>
+      <c r="D26" s="7">
+        <v>531133</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>863</v>
+      </c>
+      <c r="I26" s="7">
+        <v>921146</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1362</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1452279</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3197</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3357764</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3497955</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6493</v>
       </c>
-      <c r="N24" s="7">
-        <v>6855720</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6855719</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4036,8 +4489,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6FA2D4-896D-40BA-8121-88E6B4747FCE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B728B26-5921-475B-81A9-C49E38166E41}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4053,7 +4506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4157,46 +4610,46 @@
         <v>160</v>
       </c>
       <c r="D4" s="7">
-        <v>351236</v>
+        <v>371923</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>181</v>
       </c>
       <c r="I4" s="7">
-        <v>309697</v>
+        <v>273112</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>341</v>
       </c>
       <c r="N4" s="7">
-        <v>660933</v>
+        <v>645035</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,46 +4661,46 @@
         <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>23020</v>
+        <v>24241</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>40691</v>
+        <v>36138</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="M5" s="7">
         <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>63711</v>
+        <v>60379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,7 +4712,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>374256</v>
+        <v>396164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4274,7 +4727,7 @@
         <v>205</v>
       </c>
       <c r="I6" s="7">
-        <v>350388</v>
+        <v>309250</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4289,7 +4742,7 @@
         <v>376</v>
       </c>
       <c r="N6" s="7">
-        <v>724644</v>
+        <v>705414</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4312,46 +4765,46 @@
         <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>375052</v>
+        <v>369188</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>387</v>
       </c>
       <c r="I7" s="7">
-        <v>412254</v>
+        <v>432759</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>651</v>
       </c>
       <c r="N7" s="7">
-        <v>787306</v>
+        <v>801947</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,46 +4816,46 @@
         <v>38</v>
       </c>
       <c r="D8" s="7">
-        <v>53344</v>
+        <v>54359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>80001</v>
+        <v>73112</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>133345</v>
+        <v>127471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4867,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4429,7 +4882,7 @@
         <v>455</v>
       </c>
       <c r="I9" s="7">
-        <v>492255</v>
+        <v>505871</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4444,7 +4897,7 @@
         <v>757</v>
       </c>
       <c r="N9" s="7">
-        <v>920651</v>
+        <v>929418</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4467,46 +4920,46 @@
         <v>456</v>
       </c>
       <c r="D10" s="7">
-        <v>453485</v>
+        <v>436549</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>652</v>
       </c>
       <c r="I10" s="7">
-        <v>447561</v>
+        <v>416463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>1108</v>
       </c>
       <c r="N10" s="7">
-        <v>901048</v>
+        <v>853011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>306</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,46 +4971,46 @@
         <v>87</v>
       </c>
       <c r="D11" s="7">
-        <v>100541</v>
+        <v>96648</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>129832</v>
+        <v>120303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
       </c>
       <c r="N11" s="7">
-        <v>230372</v>
+        <v>216952</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,7 +5022,7 @@
         <v>543</v>
       </c>
       <c r="D12" s="7">
-        <v>554026</v>
+        <v>533197</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4584,7 +5037,7 @@
         <v>839</v>
       </c>
       <c r="I12" s="7">
-        <v>577393</v>
+        <v>536766</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4599,7 +5052,7 @@
         <v>1382</v>
       </c>
       <c r="N12" s="7">
-        <v>1131420</v>
+        <v>1069963</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4622,46 +5075,46 @@
         <v>545</v>
       </c>
       <c r="D13" s="7">
-        <v>591784</v>
+        <v>757556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>842</v>
       </c>
       <c r="I13" s="7">
-        <v>549242</v>
+        <v>530725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>1387</v>
       </c>
       <c r="N13" s="7">
-        <v>1141026</v>
+        <v>1288281</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,46 +5126,46 @@
         <v>119</v>
       </c>
       <c r="D14" s="7">
-        <v>131080</v>
+        <v>129170</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>294</v>
       </c>
       <c r="I14" s="7">
-        <v>194550</v>
+        <v>178895</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>413</v>
       </c>
       <c r="N14" s="7">
-        <v>325631</v>
+        <v>308066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +5177,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722864</v>
+        <v>886726</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4739,7 +5192,7 @@
         <v>1136</v>
       </c>
       <c r="I15" s="7">
-        <v>743792</v>
+        <v>709620</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4754,7 +5207,7 @@
         <v>1800</v>
       </c>
       <c r="N15" s="7">
-        <v>1466657</v>
+        <v>1596347</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4777,46 +5230,46 @@
         <v>525</v>
       </c>
       <c r="D16" s="7">
-        <v>471028</v>
+        <v>442292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>650</v>
       </c>
       <c r="I16" s="7">
-        <v>379426</v>
+        <v>349874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>1175</v>
       </c>
       <c r="N16" s="7">
-        <v>850455</v>
+        <v>792165</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,46 +5281,46 @@
         <v>133</v>
       </c>
       <c r="D17" s="7">
-        <v>123563</v>
+        <v>113649</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
       </c>
       <c r="I17" s="7">
-        <v>210768</v>
+        <v>191887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>478</v>
       </c>
       <c r="N17" s="7">
-        <v>334330</v>
+        <v>305536</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +5332,7 @@
         <v>658</v>
       </c>
       <c r="D18" s="7">
-        <v>594591</v>
+        <v>555941</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4894,7 +5347,7 @@
         <v>995</v>
       </c>
       <c r="I18" s="7">
-        <v>590194</v>
+        <v>541761</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4909,7 +5362,7 @@
         <v>1653</v>
       </c>
       <c r="N18" s="7">
-        <v>1184785</v>
+        <v>1097701</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4929,49 +5382,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>787</v>
+        <v>460</v>
       </c>
       <c r="D19" s="7">
-        <v>533361</v>
+        <v>297996</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>1183</v>
+        <v>591</v>
       </c>
       <c r="I19" s="7">
-        <v>732264</v>
+        <v>490014</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
-        <v>1970</v>
+        <v>1051</v>
       </c>
       <c r="N19" s="7">
-        <v>1265626</v>
+        <v>788010</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,49 +5433,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="D20" s="7">
-        <v>161111</v>
+        <v>67805</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
-        <v>519</v>
+        <v>235</v>
       </c>
       <c r="I20" s="7">
-        <v>290409</v>
+        <v>117768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
-        <v>756</v>
+        <v>342</v>
       </c>
       <c r="N20" s="7">
-        <v>451519</v>
+        <v>185573</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,10 +5484,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1024</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>694472</v>
+        <v>365801</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5046,10 +5499,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1702</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1022673</v>
+        <v>607782</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5061,10 +5514,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2726</v>
+        <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1717145</v>
+        <v>973583</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5078,55 +5531,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2737</v>
+        <v>327</v>
       </c>
       <c r="D22" s="7">
-        <v>2775948</v>
+        <v>203677</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
-        <v>3895</v>
+        <v>592</v>
       </c>
       <c r="I22" s="7">
-        <v>2830446</v>
+        <v>282757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
-        <v>6632</v>
+        <v>919</v>
       </c>
       <c r="N22" s="7">
-        <v>5606394</v>
+        <v>486435</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,49 +5588,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>625</v>
+        <v>130</v>
       </c>
       <c r="D23" s="7">
-        <v>592658</v>
+        <v>78386</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>124</v>
+        <v>408</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
-        <v>1437</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>946250</v>
+        <v>140219</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>410</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="M23" s="7">
-        <v>2062</v>
+        <v>414</v>
       </c>
       <c r="N23" s="7">
-        <v>1538908</v>
+        <v>218604</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,63 +5639,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282063</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>876</v>
+      </c>
+      <c r="I24" s="7">
+        <v>422976</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1333</v>
+      </c>
+      <c r="N24" s="7">
+        <v>705039</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2737</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2879182</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3895</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2775703</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6632</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5654885</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>625</v>
+      </c>
+      <c r="D26" s="7">
+        <v>564257</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1437</v>
+      </c>
+      <c r="I26" s="7">
+        <v>858323</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2062</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1422580</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3362</v>
       </c>
-      <c r="D24" s="7">
-        <v>3368606</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3443439</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5332</v>
       </c>
-      <c r="I24" s="7">
-        <v>3776696</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3634026</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8694</v>
       </c>
-      <c r="N24" s="7">
-        <v>7145302</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7077465</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
